--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/65.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/65.xlsx
@@ -479,13 +479,13 @@
         <v>-2.644061201730449</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.656371506731533</v>
+        <v>-8.652614015815958</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.08072631091997</v>
+        <v>-3.090270599691588</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.455382015746561</v>
+        <v>-5.456089000100014</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-2.353722755397515</v>
       </c>
       <c r="E3" t="n">
-        <v>-8.902441338641776</v>
+        <v>-8.8986838477262</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.17781882879421</v>
+        <v>-3.187703517439713</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.386725979644549</v>
+        <v>-5.38992050153793</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-2.176449544011998</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.720265127953036</v>
+        <v>-9.715198406753288</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.059752441767524</v>
+        <v>-3.071024914514251</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.260660195581568</v>
+        <v>-5.262375287253835</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-2.131873813790584</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.48513055226952</v>
+        <v>-10.47812617024919</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.964898707679219</v>
+        <v>-2.97499287317019</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.466667580796129</v>
+        <v>-5.468330303257027</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-2.19036784819253</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.26611260138416</v>
+        <v>-11.25888565021553</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.814769270993146</v>
+        <v>-2.825046728723901</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.020089130864852</v>
+        <v>-5.021581653388809</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-2.326077222402627</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.92513984952812</v>
+        <v>-11.91643346813838</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.780559083667716</v>
+        <v>-2.789435664994406</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.161813309126537</v>
+        <v>-5.164510323511933</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-2.504572359499843</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.4219534654631</v>
+        <v>-12.41182002306361</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.661680973864843</v>
+        <v>-2.671958431595598</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.719882626704074</v>
+        <v>-4.723378271562814</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-2.692079598802554</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.40119225651</v>
+        <v>-13.39242041360605</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.405975207063092</v>
+        <v>-2.415886080314278</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.634429166056128</v>
+        <v>-4.637780795583609</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-2.855186790571651</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.14530638082235</v>
+        <v>-14.13457069249213</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.383299338541222</v>
+        <v>-2.392830535009999</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.267556655825279</v>
+        <v>-4.273147069138696</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-2.969795309726007</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.84482812165577</v>
+        <v>-14.83455066392501</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.206409234846661</v>
+        <v>-2.215233446961985</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.054034288779569</v>
+        <v>-4.060370963354965</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-3.018239692835809</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.50766522992668</v>
+        <v>-15.49864463326873</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.190842486767849</v>
+        <v>-2.198763329987093</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.534138942934627</v>
+        <v>-3.540855294292432</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-2.994864737589915</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.48012220810157</v>
+        <v>-16.47102305762656</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.027083962823539</v>
+        <v>-2.034507298534798</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.895378579589654</v>
+        <v>-2.902945930632172</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-2.905890171447375</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.12011324791366</v>
+        <v>-17.11083080519888</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.743007175763767</v>
+        <v>-1.748152450780565</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.532970544627835</v>
+        <v>-2.541218695418122</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-2.763812150678585</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.0271348964856</v>
+        <v>-18.01846779200438</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.57683966809658</v>
+        <v>-1.581592174028126</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.937100565392356</v>
+        <v>-1.945453454605377</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-2.588256838681811</v>
       </c>
       <c r="E16" t="n">
-        <v>-18.94428998745704</v>
+        <v>-18.93716777471114</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.410305575949824</v>
+        <v>-1.415097358789896</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.584079711568054</v>
+        <v>-1.592432600781075</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-2.399312857933417</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.73581134035927</v>
+        <v>-19.72944848117819</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.166697096973827</v>
+        <v>-1.171973295019043</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.052623862313868</v>
+        <v>-1.059955551905235</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-2.216393416295719</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.72163555973556</v>
+        <v>-20.71611060793635</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.070298471150198</v>
+        <v>-1.075339007744263</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.6963692096876599</v>
+        <v>-0.7057171139166524</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-2.056604574283418</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.56425617062905</v>
+        <v>-21.55917635712646</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9209938495431541</v>
+        <v>-0.9261391245599524</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.3236051631780353</v>
+        <v>-0.3303346068386825</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-1.930734546379441</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.21496980646852</v>
+        <v>-22.21170982306093</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.664633467599316</v>
+        <v>-0.668404050817733</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0472997763280642</v>
+        <v>0.0395622253486041</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-1.844648844395345</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.84347889668842</v>
+        <v>-22.84146268205079</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.3627904255833214</v>
+        <v>-0.3673465469722421</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3640025820694178</v>
+        <v>0.355152185348411</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-1.801079348968648</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.47433150911699</v>
+        <v>-23.47256404823336</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.09252601802157021</v>
+        <v>-0.09555033997800892</v>
       </c>
       <c r="G22" t="n">
-        <v>0.327815457014887</v>
+        <v>0.3190305218080888</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-1.795640883269408</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.98307221294078</v>
+        <v>-23.98223430555891</v>
       </c>
       <c r="F23" t="n">
-        <v>0.01940007897234595</v>
+        <v>0.01638884931874896</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5881558990226098</v>
+        <v>0.5778915335946966</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-1.821729917634168</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.37311809920148</v>
+        <v>-24.37423094494303</v>
       </c>
       <c r="F24" t="n">
-        <v>0.004029715436159549</v>
+        <v>0.001450531776339514</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5187405093557782</v>
+        <v>0.5083844978079729</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-1.869755529761032</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.64165432278813</v>
+        <v>-24.64285881464957</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2937492850207157</v>
+        <v>0.2914581320234136</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5096020819722534</v>
+        <v>0.4990758704875056</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-1.927975060739875</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.65591184058277</v>
+        <v>-24.65695922481011</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3076271260329453</v>
+        <v>0.3051526807958591</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3497581565776198</v>
+        <v>0.3385904222536275</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-1.985973432377262</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.63459757155644</v>
+        <v>-24.63667924770827</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1252644397505429</v>
+        <v>0.122632886879356</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3246733043328727</v>
+        <v>0.3135972161287724</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-2.031175031343145</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.74833040634251</v>
+        <v>-24.75046445170571</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2409611199628762</v>
+        <v>0.2385128593314734</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03825299506443149</v>
+        <v>0.02822429108766933</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-2.050602227145666</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.79493900445906</v>
+        <v>-24.79753128042172</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1876623550942094</v>
+        <v>0.183616833516116</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.05573664703631995</v>
+        <v>-0.06542495113919725</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-2.035474967268932</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.56624265841979</v>
+        <v>-24.56866473444551</v>
       </c>
       <c r="F30" t="n">
-        <v>0.06517076970702029</v>
+        <v>0.06306290894950239</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.2487957447404125</v>
+        <v>-0.2579341721239374</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-1.976434203839915</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.09704070917801</v>
+        <v>-24.09938423138668</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06358660106317143</v>
+        <v>0.06091577128345932</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.7102208660942061</v>
+        <v>-0.7193985703862561</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-1.867535559300903</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.18249416982595</v>
+        <v>-24.1860552761989</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1284458693410824</v>
+        <v>0.1267176853659745</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.7637291078083406</v>
+        <v>-0.770209797714995</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-1.707338644919119</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.76168137188719</v>
+        <v>-23.76487589378058</v>
       </c>
       <c r="F33" t="n">
-        <v>0.04461585424551036</v>
+        <v>0.0426781934249349</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.225442259824652</v>
+        <v>-1.230993396229544</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-1.493358762201089</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.19669613505535</v>
+        <v>-23.20019177991409</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.1105279344289435</v>
+        <v>-0.1131856719058139</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.297502294665512</v>
+        <v>-1.302935600344829</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-1.229305796390563</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.85505249240051</v>
+        <v>-22.85704252243245</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.3029455092937915</v>
+        <v>-0.3060091081587555</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.318397610000907</v>
+        <v>-1.323267946658029</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-0.9205218455876919</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.12827257705061</v>
+        <v>-22.13070774537917</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.4345362451559803</v>
+        <v>-0.4377569516550449</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.520608227391366</v>
+        <v>-1.524221702975683</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-0.570525127101656</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.31767573890798</v>
+        <v>-21.32050367632179</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.3692973000956593</v>
+        <v>-0.3727143911373498</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.647040595933915</v>
+        <v>-1.651570532717152</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-0.1903476895777838</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.93971404817019</v>
+        <v>-20.94118038608846</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.4236172645859808</v>
+        <v>-0.4265106635140022</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.896736995731314</v>
+        <v>-1.901240747908868</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.213984096467993</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.28585825964871</v>
+        <v>-20.28663070551637</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.2779392108660948</v>
+        <v>-0.2810289943367421</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.047154463079905</v>
+        <v>-2.050610831030121</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6351298300537858</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.97973403460347</v>
+        <v>-19.98155386469847</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.5595677372944642</v>
+        <v>-0.5624742285253275</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.27291813328263</v>
+        <v>-2.276479239655579</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.06141745402969</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.44352567941774</v>
+        <v>-19.44370897165752</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2832546858198355</v>
+        <v>-0.2868681614041519</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.116452022021162</v>
+        <v>-2.121099789529974</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.489703235055077</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.89099122258837</v>
+        <v>-18.89371442157945</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.0235164897428321</v>
+        <v>-0.02719542684135712</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.088565416968285</v>
+        <v>-2.091838492678717</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.910938365783543</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.98806746480589</v>
+        <v>-17.99048954083161</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.0337153936565367</v>
+        <v>-0.03785256135452214</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.982151179470735</v>
+        <v>-1.985921762689153</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>2.317881030446369</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.65515638814648</v>
+        <v>-17.65807597168018</v>
       </c>
       <c r="F44" t="n">
-        <v>0.01562949575392885</v>
+        <v>0.01230405083213042</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.185121150426014</v>
+        <v>-2.189075025884216</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>2.707920156882619</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.14540757700388</v>
+        <v>-17.14827479132621</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.01512432362128569</v>
+        <v>-0.01905201447380351</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.224869381853495</v>
+        <v>-2.227370011696264</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>3.071045625743992</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.76883367036731</v>
+        <v>-16.77231622292321</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0018956700729582</v>
+        <v>-0.002005836173876168</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.162052512818893</v>
+        <v>-2.163414112314433</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>3.404651723531151</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.09337558215698</v>
+        <v>-16.0946062586241</v>
       </c>
       <c r="F47" t="n">
-        <v>0.009449928812634142</v>
+        <v>0.004880715120871744</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.455634311741759</v>
+        <v>-2.455542665621866</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>3.706173141902313</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.4417193005129</v>
+        <v>-15.44249174638056</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.0211598752313214</v>
+        <v>-0.02548033516909101</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.390028782201869</v>
+        <v>-2.391089258732049</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>3.970372126570257</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.90557640684138</v>
+        <v>-14.90621792968062</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1322033602566578</v>
+        <v>0.1286029769751831</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.570047946275603</v>
+        <v>-2.570414530755171</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>4.201081759762146</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.2017080214645</v>
+        <v>-14.20071300644853</v>
       </c>
       <c r="F50" t="n">
-        <v>0.274045369243918</v>
+        <v>0.2687560788958607</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.482866301652549</v>
+        <v>-2.481936748150786</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>4.399235337538292</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.43346478301486</v>
+        <v>-13.43137001456018</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2736002309472993</v>
+        <v>0.2694237863407887</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.551077199457942</v>
+        <v>-2.550317845893121</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>4.566941140742421</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.84678560037427</v>
+        <v>-12.84558110851283</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3561602926672239</v>
+        <v>0.3506746177765406</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.564077856179776</v>
+        <v>-2.563239948797905</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>4.71058439287947</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.19404265759433</v>
+        <v>-12.19201335065387</v>
       </c>
       <c r="F53" t="n">
-        <v>0.407770150469308</v>
+        <v>0.4021404602473658</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.583009326088912</v>
+        <v>-2.582420172461034</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>4.831450750161178</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.81697124344978</v>
+        <v>-11.81525615177752</v>
       </c>
       <c r="F54" t="n">
-        <v>0.2958047765668667</v>
+        <v>0.2901227171335576</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.689777055763188</v>
+        <v>-2.688939148381317</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>4.935018530858915</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.36279925787031</v>
+        <v>-11.36146384298045</v>
       </c>
       <c r="F55" t="n">
-        <v>0.04799366837867568</v>
+        <v>0.04216759361410759</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.156897328853132</v>
+        <v>-3.15680568273324</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>5.0276722314037</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.9126335169604</v>
+        <v>-10.9100936102091</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1393648499110819</v>
+        <v>0.1339184519289239</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.228525317700215</v>
+        <v>-3.227661225712661</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>5.111220485627438</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.15648756633651</v>
+        <v>-10.15479865926992</v>
       </c>
       <c r="F57" t="n">
-        <v>0.07327490516604872</v>
+        <v>0.06549807727806344</v>
       </c>
       <c r="G57" t="n">
-        <v>-3.596314289129984</v>
+        <v>-3.59643211985556</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>5.192759006390807</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.856961861923498</v>
+        <v>-9.855862108484793</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.1031045987176849</v>
+        <v>-0.1104231960062097</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.627709631344443</v>
+        <v>-3.628377338789371</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>5.277664586326015</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.31085572578942</v>
+        <v>-9.309978541499024</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.0133699550404944</v>
+        <v>-0.02126461365405521</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.91386809455605</v>
+        <v>-3.914417971275402</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>5.36758514928241</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.94161350874422</v>
+        <v>-8.938628463696306</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.148600351092683</v>
+        <v>-0.1566521173403445</v>
       </c>
       <c r="G60" t="n">
-        <v>-3.823426466525406</v>
+        <v>-3.82345265113109</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>5.467113179950779</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.410720628512228</v>
+        <v>-8.407408275893271</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.1734888187948042</v>
+        <v>-0.1809252468089046</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.22674794786762</v>
+        <v>-4.225726748245965</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>5.575776176415484</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.899806602416709</v>
+        <v>-7.895630157810199</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.1165503937361375</v>
+        <v>-0.1243926831383314</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.179929872905607</v>
+        <v>-4.178620642621435</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>5.695230386314658</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.42126984124878</v>
+        <v>-7.418088411658241</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.1738292186686891</v>
+        <v>-0.1829545537493722</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.183124394798988</v>
+        <v>-4.182548333473952</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>5.827876719854065</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.060354328810917</v>
+        <v>-7.055038853857177</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.3320627908137904</v>
+        <v>-0.3412143105001569</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.430136872513834</v>
+        <v>-4.429757195731423</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>5.969615547786716</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.691675080787912</v>
+        <v>-6.687053497884782</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.2756611501716345</v>
+        <v>-0.2843282546528571</v>
       </c>
       <c r="G65" t="n">
-        <v>-4.716098951182815</v>
+        <v>-4.715863289731663</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>6.120402124805292</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.441258604334217</v>
+        <v>-6.43756657493285</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.3932038450846511</v>
+        <v>-0.4021327956227083</v>
       </c>
       <c r="G66" t="n">
-        <v>-4.711765398942203</v>
+        <v>-4.71333647528321</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>6.279135514581695</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.274973265941454</v>
+        <v>-6.270665898306526</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.450273193171735</v>
+        <v>-0.4590843129842166</v>
       </c>
       <c r="G67" t="n">
-        <v>-4.829072432404069</v>
+        <v>-4.831389770007054</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>6.440516038782627</v>
       </c>
       <c r="E68" t="n">
-        <v>-5.998332906895782</v>
+        <v>-5.994208831500639</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.4158928059093623</v>
+        <v>-0.4243111566365922</v>
       </c>
       <c r="G68" t="n">
-        <v>-4.822866680857091</v>
+        <v>-4.823861695873062</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>6.60339187651993</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.8645164795505</v>
+        <v>-5.861073203903127</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.6763510786426608</v>
+        <v>-0.6854633214205021</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.924659335451511</v>
+        <v>-4.927238519111331</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>6.761351742797292</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.626629336916338</v>
+        <v>-5.622492169218352</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.6196483150351452</v>
+        <v>-0.6287474655101448</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.792505630567128</v>
+        <v>-4.796001275425869</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>6.910811590013894</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.505198228059328</v>
+        <v>-5.500301706796523</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.7187177706384863</v>
+        <v>-0.728196597895896</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.76938462374864</v>
+        <v>-4.772186376556769</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>7.049390768526282</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.480453775688466</v>
+        <v>-5.474837177769365</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.81211825911136</v>
+        <v>-0.8214530710375108</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.667644338365586</v>
+        <v>-4.669712922214579</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>7.168983060969142</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.51658853153163</v>
+        <v>-5.511312333486415</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.8704051913627245</v>
+        <v>-0.8807612029105298</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.482375160852321</v>
+        <v>-4.485072175237717</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>7.265325448507926</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.751870305900289</v>
+        <v>-5.746292984889714</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.7630221234548873</v>
+        <v>-0.7728151659804985</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.369755171807793</v>
+        <v>-4.373421016603476</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>7.336043152879817</v>
       </c>
       <c r="E75" t="n">
-        <v>-5.950729293763266</v>
+        <v>-5.944379526885029</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.092359001438507</v>
+        <v>-1.101903290210125</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.207855754867008</v>
+        <v>-4.212817737644023</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>7.376175974777056</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.479802343900259</v>
+        <v>-6.474067915255582</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.004404910947791</v>
+        <v>-1.013556430634157</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.036189480006296</v>
+        <v>-4.039449463413886</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>7.386385756480197</v>
       </c>
       <c r="E77" t="n">
-        <v>-6.94743321680103</v>
+        <v>-6.942301034087073</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.063084612284407</v>
+        <v>-1.072092116639515</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.961288415448782</v>
+        <v>-3.965386306238242</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>7.365930789891923</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.526584325307624</v>
+        <v>-7.522735188272157</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.155332978107209</v>
+        <v>-1.165531882020914</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.555466304263799</v>
+        <v>-3.559053595242432</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>7.314869567212282</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.951206983373326</v>
+        <v>-7.948169569114046</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.121122790781779</v>
+        <v>-1.130745633370447</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.349589842077656</v>
+        <v>-3.353268779176181</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>7.235822938292668</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.423066670091975</v>
+        <v>-8.419728132867336</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.306824014288821</v>
+        <v>-1.316499226088857</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.982101993613247</v>
+        <v>-2.985911853740189</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>7.126861795542464</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.363656983150101</v>
+        <v>-9.360554107376613</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.228374935661199</v>
+        <v>-1.238482193455011</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.959386848182853</v>
+        <v>-2.962568277773392</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>6.984529688212161</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.19145710722676</v>
+        <v>-10.18959800022323</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.322155100916482</v>
+        <v>-1.332183804893245</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.785979297044191</v>
+        <v>-2.789710603354083</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>6.810481956070524</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.02668056701467</v>
+        <v>-11.02542370594187</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.435050028320686</v>
+        <v>-1.44539294756565</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.409143544350789</v>
+        <v>-2.412010758673127</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>6.599171049226547</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.2406250711052</v>
+        <v>-12.23879214870735</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.507581386063849</v>
+        <v>-1.517741013069028</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.307167597516585</v>
+        <v>-2.310558503952592</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>6.346376843524572</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.13066600289142</v>
+        <v>-13.12964480326976</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.606244980279097</v>
+        <v>-1.616784284066686</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.963926693915053</v>
+        <v>-1.967239046534009</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>6.051104346540646</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.32065159278158</v>
+        <v>-14.31973513158266</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.820160116410059</v>
+        <v>-1.830476851049339</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.718472200238372</v>
+        <v>-1.721863106674379</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>5.70626416428628</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.42384830713395</v>
+        <v>-15.42375666101406</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.859541763357971</v>
+        <v>-1.869557375031891</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.301770385391915</v>
+        <v>-1.305161291827922</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>5.312180133138147</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.84380019643903</v>
+        <v>-16.84599970331644</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.885137215413545</v>
+        <v>-1.897051210999516</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.9956330680438344</v>
+        <v>-0.9990370667826831</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>4.869399326146398</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.53439617008828</v>
+        <v>-18.53511624674457</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.109329809275263</v>
+        <v>-2.119332328646341</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.7914716975299581</v>
+        <v>-0.7964074957012888</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>4.37204470159758</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.14909606416404</v>
+        <v>-20.15146577097839</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.334386495124534</v>
+        <v>-2.345894629322411</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.5044622346336393</v>
+        <v>-0.5103930478209411</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>3.827862319086204</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.97523664913367</v>
+        <v>-21.97717430995425</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.545251124693373</v>
+        <v>-2.557426966336179</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.6687837276001432</v>
+        <v>-0.6746098023647112</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>3.235712288454513</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.69776474941389</v>
+        <v>-23.6998726101714</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.647606748309988</v>
+        <v>-2.660162266735203</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.4896548401196471</v>
+        <v>-0.4955332840955821</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>2.594782724974416</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.77972893191085</v>
+        <v>-25.78274016156445</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.820909561025916</v>
+        <v>-2.833543633268182</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.4822707813169135</v>
+        <v>-0.4868269027058342</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>1.91561010335264</v>
       </c>
       <c r="E94" t="n">
-        <v>-28.04992115236331</v>
+        <v>-28.0538095663073</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.692578808571317</v>
+        <v>-2.704859388636856</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.6167680084099654</v>
+        <v>-0.621088468347735</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>1.198071312328275</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.32769381616113</v>
+        <v>-30.33069195351188</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.179402997438059</v>
+        <v>-3.191814500532015</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.00174717347092</v>
+        <v>-1.007154294544553</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.4453471650274391</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.51342759098161</v>
+        <v>-32.51711962038298</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.238056514168992</v>
+        <v>-3.249603925275394</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.229592519825479</v>
+        <v>-1.23536622537868</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.3242175782232137</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.73731233628288</v>
+        <v>-34.74025810442227</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.609301853548976</v>
+        <v>-3.620796895444012</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.463159202521872</v>
+        <v>-1.46898527728644</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-1.12812164096241</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.23859679419465</v>
+        <v>-37.24108433173458</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.852373548108463</v>
+        <v>-3.862101129119865</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.895676519201135</v>
+        <v>-1.9026939935243</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-1.927278168966677</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.77041250233332</v>
+        <v>-39.77195739406864</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.745108310926201</v>
+        <v>-3.753618307773323</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.374435849517373</v>
+        <v>-2.383744476837841</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-2.759051862689157</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.33634675167752</v>
+        <v>-42.33755124353897</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.929172996578028</v>
+        <v>-3.938586362321228</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.73689625369056</v>
+        <v>-2.745118219875164</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-3.553920698148636</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.57875710549985</v>
+        <v>-44.57767044436398</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.162896786908521</v>
+        <v>-4.16978333820327</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.345269382139887</v>
+        <v>-3.353818655895534</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-4.410404455618408</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.87974242223604</v>
+        <v>-46.87652171573698</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.304935180438408</v>
+        <v>-4.310119732363731</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.619526942068364</v>
+        <v>-3.626609877905738</v>
       </c>
     </row>
   </sheetData>
